--- a/Water Table_eliminated-Test1.xlsx
+++ b/Water Table_eliminated-Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cansu/Desktop/Cansu Belgeler/AUSTIN/HFC2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933B8A4-1694-364C-B95A-215BA9FB32DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AC96A6-E2C6-B046-B4C6-ABE6125C2289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="1460" windowWidth="13000" windowHeight="15540" xr2:uid="{66E373EE-749A-A54A-A2C1-B57713C7AFA5}"/>
   </bookViews>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEB0D28-97F4-7042-AEDB-05267DC0E93E}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +830,7 @@
         <v>2582.6555760000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2582.6952000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2582.8171200000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>23</v>
       </c>
@@ -890,7 +890,7 @@
         <v>2582.7104399999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2582.917704</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>30</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2582.7714000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>201</v>
       </c>
@@ -950,7 +950,7 @@
         <v>2582.8628400000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>202</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2582.6951999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -990,7 +990,7 @@
         <v>2582.8658879999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>16</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2582.920752</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>67</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>2582.7713999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>28</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>2582.7500639999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>8</v>
       </c>
@@ -1070,15 +1070,15 @@
         <v>2582.7866399999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>12</v>
       </c>
       <c r="B29" s="3">
+        <v>3967374.85</v>
+      </c>
+      <c r="C29" s="3">
         <v>364459.97100000002</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3967374.85</v>
       </c>
       <c r="D29">
         <v>2583.2956559999998</v>
@@ -1090,15 +1090,15 @@
         <v>2583.0121919999997</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>103</v>
       </c>
       <c r="B30" s="4">
+        <v>3967372.5669999998</v>
+      </c>
+      <c r="C30" s="4">
         <v>364462.29700000002</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3967372.5669999998</v>
       </c>
       <c r="D30">
         <v>2583.313944</v>
@@ -1109,16 +1109,17 @@
       <c r="F30" s="7">
         <v>2583.003048</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>104</v>
       </c>
       <c r="B31" s="3">
+        <v>3967367.986</v>
+      </c>
+      <c r="C31" s="3">
         <v>364458.42800000001</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3967367.986</v>
       </c>
       <c r="D31">
         <v>2583.3322320000002</v>
@@ -1129,16 +1130,17 @@
       <c r="F31" s="7">
         <v>2583.0152400000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>105</v>
       </c>
       <c r="B32" s="4">
+        <v>3967364.8360000001</v>
+      </c>
+      <c r="C32" s="4">
         <v>364455.60499999998</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3967364.8360000001</v>
       </c>
       <c r="D32">
         <v>2583.313944</v>
@@ -1149,16 +1151,17 @@
       <c r="F32" s="7">
         <v>2583.0243839999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" s="3">
+        <v>3967365.986</v>
+      </c>
+      <c r="C33" s="3">
         <v>364453.489</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3967365.986</v>
       </c>
       <c r="D33">
         <v>2583.2804160000001</v>
@@ -1169,16 +1172,17 @@
       <c r="F33" s="7">
         <v>2583.003048</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>107</v>
       </c>
       <c r="B34" s="4">
+        <v>3967360.7680000002</v>
+      </c>
+      <c r="C34" s="4">
         <v>364446.06800000003</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3967360.7680000002</v>
       </c>
       <c r="D34">
         <v>2583.294132</v>
@@ -1189,16 +1193,17 @@
       <c r="F34" s="7">
         <v>2583.0006096000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>108</v>
       </c>
       <c r="B35" s="3">
+        <v>3967340.1579999998</v>
+      </c>
+      <c r="C35" s="3">
         <v>364447.43599999999</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3967340.1579999998</v>
       </c>
       <c r="D35">
         <v>2583.2804160000001</v>
@@ -1209,16 +1214,17 @@
       <c r="F35" s="7">
         <v>2583.1203960000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>109</v>
       </c>
       <c r="B36" s="4">
+        <v>3967341.0460000001</v>
+      </c>
+      <c r="C36" s="4">
         <v>364442.92800000001</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3967341.0460000001</v>
       </c>
       <c r="D36">
         <v>2583.1523999999999</v>
@@ -1229,16 +1235,17 @@
       <c r="F36" s="7">
         <v>2583.0853440000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>111</v>
       </c>
       <c r="B37" s="3">
+        <v>3967346.1260000002</v>
+      </c>
+      <c r="C37" s="3">
         <v>364443.81199999998</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3967346.1260000002</v>
       </c>
       <c r="D37">
         <v>2583.2895600000002</v>
@@ -1249,16 +1256,17 @@
       <c r="F37" s="7">
         <v>2583.0381000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>112</v>
       </c>
       <c r="B38" s="4">
+        <v>3967353.4589999998</v>
+      </c>
+      <c r="C38" s="4">
         <v>364439.98700000002</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3967353.4589999998</v>
       </c>
       <c r="D38">
         <v>2583.3291840000002</v>
@@ -1269,16 +1277,17 @@
       <c r="F38" s="7">
         <v>2582.9725680000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>113</v>
       </c>
       <c r="B39" s="3">
+        <v>3967356.156</v>
+      </c>
+      <c r="C39" s="3">
         <v>364440.90100000001</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3967356.156</v>
       </c>
       <c r="D39">
         <v>2583.2880359999999</v>
@@ -1289,16 +1298,17 @@
       <c r="F39" s="7">
         <v>2582.9695200000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>114</v>
       </c>
       <c r="B40" s="4">
+        <v>3967358.4</v>
+      </c>
+      <c r="C40" s="4">
         <v>364441.5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3967358.4</v>
       </c>
       <c r="D40">
         <v>2583.2846832</v>
@@ -1309,16 +1319,17 @@
       <c r="F40" s="7">
         <v>2582.9753111999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>116</v>
       </c>
       <c r="B41" s="3">
+        <v>3967363.4419999998</v>
+      </c>
+      <c r="C41" s="3">
         <v>364437.42200000002</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3967363.4419999998</v>
       </c>
       <c r="D41">
         <v>2583.3047999999999</v>
@@ -1329,16 +1340,17 @@
       <c r="F41" s="7">
         <v>2583.0070103999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>117</v>
       </c>
       <c r="B42" s="4">
+        <v>3967360.5920000002</v>
+      </c>
+      <c r="C42" s="4">
         <v>364436.85700000002</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3967360.5920000002</v>
       </c>
       <c r="D42">
         <v>2583.3215639999999</v>
@@ -1349,16 +1361,17 @@
       <c r="F42" s="7">
         <v>2582.9823216</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>118</v>
       </c>
       <c r="B43" s="3">
+        <v>3967357.8530000001</v>
+      </c>
+      <c r="C43" s="3">
         <v>364436.185</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3967357.8530000001</v>
       </c>
       <c r="D43">
         <v>2583.2956559999998</v>
@@ -1369,16 +1382,17 @@
       <c r="F43" s="7">
         <v>2582.9832359999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>119</v>
       </c>
       <c r="B44" s="4">
+        <v>3967354.8229999999</v>
+      </c>
+      <c r="C44" s="4">
         <v>364435.45899999997</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3967354.8229999999</v>
       </c>
       <c r="D44">
         <v>2583.4480560000002</v>
@@ -1389,16 +1403,17 @@
       <c r="F44" s="7">
         <v>2583.1645920000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>121</v>
       </c>
       <c r="B45" s="3">
+        <v>3967357.088</v>
+      </c>
+      <c r="C45" s="3">
         <v>364430.266</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3967357.088</v>
       </c>
       <c r="D45">
         <v>2583.1676400000001</v>
@@ -1409,16 +1424,17 @@
       <c r="F45" s="7">
         <v>2582.9588520000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>122</v>
       </c>
       <c r="B46" s="4">
+        <v>3967360.3160000001</v>
+      </c>
+      <c r="C46" s="4">
         <v>364431.51400000002</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3967360.3160000001</v>
       </c>
       <c r="D46">
         <v>2583.2468880000001</v>
@@ -1429,16 +1445,17 @@
       <c r="F46" s="7">
         <v>2582.9497080000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>123</v>
       </c>
       <c r="B47" s="3">
+        <v>3967363.5460000001</v>
+      </c>
+      <c r="C47" s="3">
         <v>364432.46500000003</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3967363.5460000001</v>
       </c>
       <c r="D47">
         <v>2583.2011680000001</v>
@@ -1449,16 +1466,17 @@
       <c r="F47" s="7">
         <v>2582.9756160000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="4">
+        <v>3967368.798</v>
+      </c>
+      <c r="C48" s="4">
         <v>364423.63900000002</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3967368.798</v>
       </c>
       <c r="D48">
         <v>2583.2438400000001</v>
@@ -1469,16 +1487,17 @@
       <c r="F48" s="7">
         <v>2582.9878080000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>5</v>
       </c>
       <c r="B49" s="3">
+        <v>3967398.327</v>
+      </c>
+      <c r="C49" s="3">
         <v>364419.80900000001</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3967398.327</v>
       </c>
       <c r="D49">
         <v>2583.2590799999998</v>
@@ -1489,6 +1508,7 @@
       <c r="F49" s="7">
         <v>2582.9756159999997</v>
       </c>
+      <c r="H49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
